--- a/ProductPriceComparison/ProductWatchList.xlsx
+++ b/ProductPriceComparison/ProductWatchList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maixa\Documents\NguyenAnhClassWork\PracticeProjects\ProductPriceComparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA5688-E4A1-4C1F-847B-537BB6803C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596300B-233C-40E0-93F9-F8EEFB312FF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3255" yWindow="930" windowWidth="21330" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Product Name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>https://www.ebay.com/itm/VisionTek-RX-480-8GB-GDDR5-Overclocked-Edition-Rear-Blower-4M-3x-DP-HDMI/114683471280?hash=item1ab3aae5b0:g:aqoAAOSwK1tgKFVK</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/nvidia-rtx-3060-ti-founders-edition/203288698285?hash=item2f54f35dad:g:gLkAAOSwraBgNu-p</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/NVIDIA-GeForce-RTX-2080-Ti-Cyberpunk-2077-Edition-Front-Back-Plate-Only-USED/174648293981?_trkparms=aid%3D1110006%26algo%3DHOMESPLICE.SIM%26ao%3D1%26asc%3D230925%26meid%3D43882e1369e9447d8cea1e7aebe460c6%26pid%3D101195%26rk%3D2%26rkt%3D12%26mehot%3Dpf%26sd%3D203288698285%26itm%3D174648293981%26pmt%3D1%26noa%3D0%26pg%3D2047675%26algv%3DSimplAMLv9PairwiseUnbiasedWeb%26brand%3DNVIDIA&amp;_trksid=p2047675.c101195.m1851</t>
   </si>
 </sst>
 </file>
@@ -365,39 +371,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{539A17E9-EB8E-4E58-BCD4-17E4A632454F}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{539A17E9-EB8E-4E58-BCD4-17E4A632454F}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{E517D4C0-FB2F-4A7E-938E-4044DAB5D370}"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.ebay.com/itm/NVIDIA-GeForce-RTX-2080-Ti-Cyberpunk-2077-Edition-Front-Back-Plate-Only-USED/174648293981?_trkparms=aid%3D1110006%26algo%3DHOMESPLICE.SIM%26ao%3D1%26asc%3D230925%26meid%3D43882e1369e9447d8cea1e7aebe460c6%26pid%3D101195%26rk%3D2%26rkt%3D12%26mehot%3Dpf%26sd%3D203288698285%26itm%3D174648293981%26pmt%3D1%26noa%3D0%26pg%3D2047675%26algv%3DSimplAMLv9PairwiseUnbiasedWeb%26brand%3DNVIDIA&amp;_trksid=p2047675.c101195.m1851" xr:uid="{3DD58F52-ED90-42CA-92AA-098CB089F0C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
 </worksheet>
 </file>